--- a/excel/data/data.xlsx
+++ b/excel/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\PycharmProjects\keyword_testing_framework\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2812AB-EFCA-407C-8772-66E7365463BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010CAA50-CEB8-4159-9E7A-A55E06442964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E57531A6-1F5F-4683-B3B4-E9CC27C96880}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="117">
   <si>
     <t>dsw_app_sc_037</t>
   </si>
@@ -426,6 +426,40 @@
   </si>
   <si>
     <t>$directories_list_two</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_attribute</t>
+  </si>
+  <si>
+    <t>btn_read_book</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>btn_read_book_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_read_book_class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$btn_read_book_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$btn_read_book_class</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -875,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2415436-D355-4F49-8C89-1B4AED01C191}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1103,26 +1137,69 @@
         <v>107</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A4 A6:A7 A9 A11 A13:A1048576" xr:uid="{15CCC493-3864-4342-A84C-E06153422D4A}">
-      <formula1>"find,click,find_and_click,find_in_elm,send_keys,get_attribute,assert,page_source"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{6216835A-4C95-4C73-B438-7E9DE3E0B390}">
-      <formula1>"find,click,find_and_click,find_in_elm,send_keys,get_attribute,assert,page_source,$random_choice"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{7B23E11D-75F9-4365-A669-5EF0DE31EECF}">
-      <formula1>"find,click,find_and_click,find_in_elm,send_keys,get_attribute,assert,page_source,$action_chains_pointer_down"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A12" xr:uid="{3A9ECF23-6EFF-485E-ACD6-D9A03AA337E0}">
-      <formula1>"find,click,find_and_click,find_in_elm,send_keys,get_attribute,assert,page_source,$store_directories"</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{2171ABC6-A4C7-4BDC-9DE7-AA78D3A7DBF1}">
       <formula1>"id,xpath,name,accessibility id,tag name,class name,css selector,link text,partial link text"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{591D9C5C-B2D2-454A-A64C-0F81A17F1D07}">
       <formula1>"find_element,find_elements,visibility_of_element_located,presence_of_element_located,element_to_be_clickable,visibility_of_all_elements_located,presence_of_all_elements_located"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1048576" xr:uid="{B77DFCF2-E651-4858-A27A-EB382D89560B}">
+      <formula1>"find,click,find_and_click,find_in_elm,send_keys,get_attribute,assert,page_source,print"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/data/data.xlsx
+++ b/excel/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\PycharmProjects\keyword_testing_framework\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010CAA50-CEB8-4159-9E7A-A55E06442964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900DE1C7-AD30-4796-832E-BD660E0B4D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E57531A6-1F5F-4683-B3B4-E9CC27C96880}"/>
   </bookViews>
@@ -417,10 +417,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d559b57430b44accaf35e61f5debaf59</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$directories_list_one</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -460,6 +456,10 @@
   </si>
   <si>
     <t>$btn_read_book_class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d9277c08d8d04401910c93364eeecb1f</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2415436-D355-4F49-8C89-1B4AED01C191}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1128,65 +1128,65 @@
         <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
         <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
         <v>108</v>
       </c>
-      <c r="E14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>109</v>
-      </c>
-      <c r="G14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" t="s">
         <v>112</v>
-      </c>
-      <c r="G16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
         <v>108</v>
       </c>
-      <c r="E17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" t="s">
-        <v>109</v>
-      </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1212,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1256,7 +1256,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">

--- a/excel/data/data.xlsx
+++ b/excel/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\PycharmProjects\keyword_testing_framework\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900DE1C7-AD30-4796-832E-BD660E0B4D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8F36A0-00C0-4D46-9AAC-39BCE279538D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E57531A6-1F5F-4683-B3B4-E9CC27C96880}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>dsw_app_sc_037</t>
   </si>
@@ -321,40 +321,6 @@
     <t>- `assert_almost_equal`: 断言两个数字或两个序列的元素接近相等。</t>
   </si>
   <si>
-    <t>action</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>selector</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>selector_value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_name</t>
-  </si>
-  <si>
-    <t>action_value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>visibility_of_all_elements_located</t>
   </si>
   <si>
@@ -460,6 +426,30 @@
   </si>
   <si>
     <t>d9277c08d8d04401910c93364eeecb1f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在http://localhost:4000/user获取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写则指定设备，填http://localhost:4000/devices的设备编号，如不填写，则随机从已有设备列表中获取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atx的端口，通常为4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4723</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wd/hub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FJH5T18C31075437</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,15 +481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -511,14 +492,6 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -552,15 +525,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -570,34 +540,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -909,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2415436-D355-4F49-8C89-1B4AED01C191}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -930,275 +890,192 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
         <v>93</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="I12" t="s">
         <v>97</v>
-      </c>
-      <c r="F9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{2171ABC6-A4C7-4BDC-9DE7-AA78D3A7DBF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12 C18:C1048576" xr:uid="{2171ABC6-A4C7-4BDC-9DE7-AA78D3A7DBF1}">
       <formula1>"id,xpath,name,accessibility id,tag name,class name,css selector,link text,partial link text"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{591D9C5C-B2D2-454A-A64C-0F81A17F1D07}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 B18:B1048576" xr:uid="{591D9C5C-B2D2-454A-A64C-0F81A17F1D07}">
       <formula1>"find_element,find_elements,visibility_of_element_located,presence_of_element_located,element_to_be_clickable,visibility_of_all_elements_located,presence_of_all_elements_located"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1048576" xr:uid="{B77DFCF2-E651-4858-A27A-EB382D89560B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12 A18:A1048576" xr:uid="{B77DFCF2-E651-4858-A27A-EB382D89560B}">
       <formula1>"find,click,find_and_click,find_in_elm,send_keys,get_attribute,assert,page_source,print"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1212,20 +1089,21 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C1" t="s">
@@ -1236,7 +1114,7 @@
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
@@ -1247,8 +1125,11 @@
       <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>4000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1256,20 +1137,30 @@
         <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
@@ -1278,7 +1169,7 @@
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C7" t="s">
@@ -1289,7 +1180,7 @@
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>4723</v>
       </c>
     </row>
@@ -1297,16 +1188,18 @@
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="C9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C10" t="s">
@@ -1342,18 +1235,19 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="http://127.0.0.1:4723" xr:uid="{9C1829A1-3CA2-4BB9-8E8A-85479D1EBFF4}"/>
     <hyperlink ref="B1" r:id="rId2" xr:uid="{B347876F-478A-4E3F-B712-B9F589D5A82E}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{F025BEF9-A366-4F34-9DEB-6A6130F4F9B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C296BCE6-63F8-4E4D-88C8-344463BD3390}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1514,8 +1408,71 @@
         <v>34</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A40:A44" xr:uid="{B77DFCF2-E651-4858-A27A-EB382D89560B}">
+      <formula1>"find,click,find_and_click,find_in_elm,send_keys,get_attribute,assert,page_source,print"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:B44" xr:uid="{591D9C5C-B2D2-454A-A64C-0F81A17F1D07}">
+      <formula1>"find_element,find_elements,visibility_of_element_located,presence_of_element_located,element_to_be_clickable,visibility_of_all_elements_located,presence_of_all_elements_located"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:C44" xr:uid="{2171ABC6-A4C7-4BDC-9DE7-AA78D3A7DBF1}">
+      <formula1>"id,xpath,name,accessibility id,tag name,class name,css selector,link text,partial link text"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
